--- a/biology/Mycologie/Phialomyces_macrosporus/Phialomyces_macrosporus.xlsx
+++ b/biology/Mycologie/Phialomyces_macrosporus/Phialomyces_macrosporus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phialomyces macrosporus est une espèce de champignons Ascomycètes de la famille des Aspergillaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description de cette espèce a conduit à la description du nouveau genre de champignons, Phialomyces, après avoir été comparé aux genres Paecilomyces, Stachybotrys et Memnoniella[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description de cette espèce a conduit à la description du nouveau genre de champignons, Phialomyces, après avoir été comparé aux genres Paecilomyces, Stachybotrys et Memnoniella.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les colonies sont de couleur jaune vif sur gélose neutre à la levure Czapek-Dox, puis elles deviennent veloutées et olive grisâtre, avec un pigment jaune produit dans le milieu[2]. Les souches de cette espèce de ce genre peuvent produire des conidiophores terverticillés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les colonies sont de couleur jaune vif sur gélose neutre à la levure Czapek-Dox, puis elles deviennent veloutées et olive grisâtre, avec un pigment jaune produit dans le milieu. Les souches de cette espèce de ce genre peuvent produire des conidiophores terverticillés.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phialomyces macrosporus P.C. Misra &amp; P.H.B. Talbot, 1964[4].
-Espèce type du genre Phialomyces, deux autres espèces ont été confirmées comme appartenant au même genre et reclassées à la suite d'une analyse phylogénétique regroupant dans ce genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Phialomyces macrosporus P.C. Misra &amp; P.H.B. Talbot, 1964.
+Espèce type du genre Phialomyces, deux autres espèces ont été confirmées comme appartenant au même genre et reclassées à la suite d'une analyse phylogénétique regroupant dans ce genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus.
 </t>
         </is>
       </c>
